--- a/zz_document/project_Parfait/3-1-1_機能設計_HowToStudy.xlsx
+++ b/zz_document/project_Parfait/3-1-1_機能設計_HowToStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6201BF-074E-4224-B5A8-429E5965596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2367450-E394-4110-9245-96A948F6D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,6 +513,107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>454034</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1618550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C21F587-86B9-4A12-AC12-F7209604E1A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6301556" y="4578626"/>
+          <a:ext cx="2829320" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1-2_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>運用方針</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ分析</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>運用設計</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(initial_stage)ni</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>matome</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,7 +883,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1131,5 +1232,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>